--- a/time.xlsx
+++ b/time.xlsx
@@ -80,6 +80,12 @@
   <connection id="1" name="time" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\hanshui\time.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="2" name="time1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\hanshui\time.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="time2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\hanshui\time.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
@@ -98,26 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期几</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>起始</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,23 +112,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>循环</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年</t>
   </si>
   <si>
     <t>每星期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -207,22 +214,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -237,37 +274,7 @@
       <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -284,12 +291,12 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="times">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="time" form="unqualified">
+            <xsd:element minOccurs="0" nillable="true" name="time" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" name="timeStart" form="unqualified">
@@ -307,7 +314,12 @@
                       <xsd:attribute name="countCount" form="unqualified" type="xsd:integer"/>
                       <xsd:attribute name="countNext" form="unqualified" type="xsd:integer"/>
                       <xsd:attribute name="countCycle" form="unqualified" type="xsd:integer"/>
-                      <xsd:attribute name="countEnd" form="unqualified" type="xsd:integer"/>
+                    </xsd:complexType>
+                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" name="timeEnd" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:attribute name="endHour" form="unqualified" type="xsd:integer"/>
+                      <xsd:attribute name="endMin" form="unqualified" type="xsd:integer"/>
                     </xsd:complexType>
                   </xsd:element>
                 </xsd:sequence>
@@ -320,56 +332,59 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="times_映射" RootElement="times" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="3" Name="times_映射" RootElement="times" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M3" tableType="xml" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" connectionId="1">
-  <autoFilter ref="A1:M3"/>
-  <tableColumns count="13">
-    <tableColumn id="1" uniqueName="timeId" name="编号" dataDxfId="12">
-      <xmlColumnPr mapId="1" xpath="/times/time/@timeId" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="13" uniqueName="13" name="类型" dataDxfId="11"/>
-    <tableColumn id="2" uniqueName="timeType" name="timeType" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N2" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" connectionId="3">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" uniqueName="timeId" name="编号" dataDxfId="13">
+      <xmlColumnPr mapId="3" xpath="/times/time/@timeId" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="timeId" name="类型" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="timeType" name="timeType" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(B2,{"永久开放","0";"永久关闭","1";"指定天数","2";"开服天数","3";"当前天数","4";"当前小时","5";"当前分钟","6";"当前秒数","7";"每年","8";"每月","9";"每星期","10";"每天","11"},2,FALSE)</calculatedColumnFormula>
-      <xmlColumnPr mapId="1" xpath="/times/time/@timeType" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="startYear" name="年" dataDxfId="10">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeStart/@startYear" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="startMonth" name="月" dataDxfId="9">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeStart/@startMonth" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="startMday" name="日" dataDxfId="8">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeStart/@startMday" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="startHour" name="小时" dataDxfId="7">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeStart/@startHour" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="startWday" name="星期几" dataDxfId="6">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeStart/@startWday" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/times/time/@timeType" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="startYear" name="起始年" dataDxfId="10">
+      <xmlColumnPr mapId="3" xpath="/times/time/timeStart/@startYear" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="startMonth" name="起始月" dataDxfId="9">
+      <xmlColumnPr mapId="3" xpath="/times/time/timeStart/@startMonth" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="startMday" name="起始日" dataDxfId="8">
+      <xmlColumnPr mapId="3" xpath="/times/time/timeStart/@startMday" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="startHour" name="起始小时" dataDxfId="7">
+      <xmlColumnPr mapId="3" xpath="/times/time/timeStart/@startHour" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="startWday" name="星期" dataDxfId="6">
+      <xmlColumnPr mapId="3" xpath="/times/time/timeStart/@startWday" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="countSpace" name="起始" dataDxfId="5">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeCount/@countSpace" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/times/time/timeCount/@countSpace" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="countCount" name="数量" dataDxfId="4">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeCount/@countCount" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="countNext" name="下一个" dataDxfId="3">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeCount/@countNext" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/times/time/timeCount/@countCount" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="countNext" name="下轮" dataDxfId="3">
+      <xmlColumnPr mapId="3" xpath="/times/time/timeCount/@countNext" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="countCycle" name="循环" dataDxfId="2">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeCount/@countCycle" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="countEnd" name="结束" dataDxfId="1">
-      <xmlColumnPr mapId="1" xpath="/times/time/timeCount/@countEnd" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/times/time/timeCount/@countCycle" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="endHour" name="结束小时" dataDxfId="1">
+      <xmlColumnPr mapId="3" xpath="/times/time/timeEnd/@endHour" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="endMin" name="结束分钟" dataDxfId="0">
+      <xmlColumnPr mapId="3" xpath="/times/time/timeEnd/@endMin" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -660,155 +675,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="11.75" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <f>VLOOKUP(B2,{"永久开放","0";"永久关闭","1";"指定天数","2";"开服天数","3";"当前天数","4";"当前小时","5";"当前分钟","6";"当前秒数","7";"每年","8";"每月","9";"每星期","10";"每天","11"},2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="H2" s="2">
+      <c r="D2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="G2" s="1">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
         <v>2</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>2</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>VLOOKUP(B3,{"永久开放","0";"永久关闭","1";"指定天数","2";"开服天数","3";"当前天数","4";"当前小时","5";"当前分钟","6";"当前秒数","7";"每年","8";"每月","9";"每星期","10";"每天","11"},2,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2">
-        <v>12</v>
+      <c r="N2" s="1">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"指定天数,开服天数,每年,每月,每星期,每天,当前天数,当前小时,当前分钟,当前秒数"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>2014</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>0</formula1>
       <formula2>23</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"指定天数,开服天数,当前天数,当前小时,当前分钟,当前秒数,每年,每月,每星期,每天"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>1</formula1>
       <formula2>7</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>0</formula1>
+      <formula2>59</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
